--- a/input/simce2m2017_glosas.xlsx
+++ b/input/simce2m2017_glosas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad8f484d7eb459f8/Documentos/Universidad/UAH 5° Semestre/OFC R para análisis estadístico/Trabajos/Trabajo02/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad8f484d7eb459f8/Documentos/Universidad/UAH 5° Semestre/OFC R para análisis estadístico/Trabajos/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_CB85E38DB7A9093789B0108D97B184295EA6DA94" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE42399A-063F-4B4A-80C0-051547157E95}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_CB85E38DB7A9093789B0108D97B184295EA6DA94" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11DAD77F-82AA-4484-B168-39CB5493D09A}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="408" windowWidth="18780" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="idps2m" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>Características generales</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Categorías de Desempeño</t>
-  </si>
-  <si>
-    <t>Los establecimientos que tengan valores del Índice Final hasta el valor del percentil 12 (inclusive) de la distribución de este índice se clasificarán en la categoría Desempeño Insuficiente.</t>
   </si>
   <si>
     <t>Los establecimientos que presenten valores del Índice Final por sobre el valor del percentil 12 y hasta el percentil 35 (inclusive) se clasificarán en la categoría Desempeño Medio-Bajo.</t>
@@ -307,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,44 +321,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
-      <family val="1"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Calibri Light"/>
-      <family val="1"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -456,79 +443,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,10 +530,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,583 +795,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="72.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="21.88671875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="13.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="26"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="C7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="11"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="11"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2017</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    </row>
+    <row r="45" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>1</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>2</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="B55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>3</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
-        <v>1</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>2</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>3</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="B56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>4</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>5</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C41" s="20"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C42" s="20"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
-        <v>1</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>2</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="14" t="s">
+      <c r="B57" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A59:E59"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
